--- a/LAB2/Scheme/Cartel1.xlsx
+++ b/LAB2/Scheme/Cartel1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S290315\Desktop\ISA_2021_Group21_Labs\LAB2\Scheme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1633CEF-0213-480E-A537-D2BACB4CC9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA92DC0-FB48-41FF-B5A2-F5F5D7703062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FE64E38-7D8C-48DF-9D48-DEF724EAE66F}"/>
   </bookViews>
@@ -101,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -177,11 +177,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -208,9 +246,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,16 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7ED27E-5697-42E6-8571-D18AF51752AF}">
-  <dimension ref="N8:CB81"/>
+  <dimension ref="N8:CB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView tabSelected="1" topLeftCell="P55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="14:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="14:80" x14ac:dyDescent="0.3">
       <c r="N9">
         <v>2</v>
       </c>
@@ -572,7 +619,7 @@
       <c r="CA9" s="1"/>
       <c r="CB9" s="1"/>
     </row>
-    <row r="10" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N10">
         <v>3</v>
       </c>
@@ -589,7 +636,7 @@
       <c r="BC10" s="15"/>
       <c r="BD10" s="12"/>
     </row>
-    <row r="11" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N11">
         <v>4</v>
       </c>
@@ -630,7 +677,7 @@
       <c r="BZ11" s="1"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N12">
         <v>6</v>
       </c>
@@ -646,7 +693,7 @@
       <c r="BA12" s="21"/>
       <c r="BB12" s="18"/>
     </row>
-    <row r="13" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N13">
         <v>9</v>
       </c>
@@ -687,7 +734,7 @@
       <c r="BX13" s="1"/>
       <c r="BZ13" s="4"/>
     </row>
-    <row r="14" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N14">
         <v>13</v>
       </c>
@@ -695,7 +742,7 @@
       <c r="AQ14" s="18"/>
       <c r="AR14" s="23"/>
     </row>
-    <row r="15" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15">
         <v>19</v>
       </c>
@@ -736,7 +783,7 @@
       <c r="BV15" s="1"/>
       <c r="BX15" s="4"/>
     </row>
-    <row r="16" spans="14:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="14:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AN16" s="18"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="23"/>
@@ -752,7 +799,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="12"/>
     </row>
-    <row r="17" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL17" s="10"/>
       <c r="AM17" s="8"/>
       <c r="AN17" s="23"/>
@@ -790,7 +837,7 @@
       <c r="BT17" s="1"/>
       <c r="BV17" s="4"/>
     </row>
-    <row r="18" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AL18" s="12"/>
       <c r="AM18" s="18"/>
       <c r="AN18" s="23"/>
@@ -805,7 +852,7 @@
       <c r="AY18" s="18"/>
       <c r="AZ18" s="18"/>
     </row>
-    <row r="19" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AJ19" s="6"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="13"/>
@@ -843,13 +890,13 @@
       <c r="BR19" s="1"/>
       <c r="BT19" s="4"/>
     </row>
-    <row r="20" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AM20" s="18"/>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="23"/>
     </row>
-    <row r="21" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AH21" s="6"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="1"/>
@@ -887,7 +934,7 @@
       <c r="BP21" s="1"/>
       <c r="BR21" s="4"/>
     </row>
-    <row r="22" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AN22" s="12"/>
       <c r="AO22" s="18"/>
       <c r="AP22" s="23"/>
@@ -901,7 +948,7 @@
       <c r="AY22" s="15"/>
       <c r="AZ22" s="12"/>
     </row>
-    <row r="23" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF23" s="6"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="1"/>
@@ -939,7 +986,7 @@
       <c r="BN23" s="1"/>
       <c r="BP23" s="4"/>
     </row>
-    <row r="24" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AO24" s="18"/>
       <c r="AR24" s="18"/>
       <c r="AS24" s="23"/>
@@ -949,7 +996,7 @@
       <c r="AW24" s="18"/>
       <c r="AX24" s="18"/>
     </row>
-    <row r="25" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD25" s="6"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="1"/>
@@ -987,12 +1034,12 @@
       <c r="BL25" s="1"/>
       <c r="BN25" s="4"/>
     </row>
-    <row r="26" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AP26" s="12"/>
       <c r="AQ26" s="18"/>
       <c r="AR26" s="23"/>
     </row>
-    <row r="27" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AB27" s="6"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="1"/>
@@ -1030,7 +1077,7 @@
       <c r="BJ27" s="1"/>
       <c r="BL27" s="4"/>
     </row>
-    <row r="28" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AQ28" s="18"/>
       <c r="AS28" s="18"/>
       <c r="AT28" s="18"/>
@@ -1039,7 +1086,7 @@
       <c r="AW28" s="15"/>
       <c r="AX28" s="12"/>
     </row>
-    <row r="29" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z29" s="6"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="1"/>
@@ -1077,14 +1124,14 @@
       <c r="BH29" s="1"/>
       <c r="BJ29" s="4"/>
     </row>
-    <row r="30" spans="24:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="24:74" x14ac:dyDescent="0.3">
       <c r="AR30" s="12"/>
       <c r="AS30" s="18"/>
       <c r="AT30" s="18"/>
       <c r="AU30" s="18"/>
       <c r="AV30" s="18"/>
     </row>
-    <row r="31" spans="24:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="24:74" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X31" s="6"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="1"/>
@@ -1122,7 +1169,7 @@
       <c r="BF31" s="1"/>
       <c r="BH31" s="4"/>
     </row>
-    <row r="33" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:80" x14ac:dyDescent="0.3">
       <c r="V33" s="6"/>
       <c r="W33" s="5"/>
       <c r="X33" s="1"/>
@@ -1160,7 +1207,7 @@
       <c r="BD33" s="1"/>
       <c r="BF33" s="4"/>
     </row>
-    <row r="35" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:80" x14ac:dyDescent="0.3">
       <c r="T35" s="6"/>
       <c r="U35" s="5"/>
       <c r="V35" s="1"/>
@@ -1198,7 +1245,7 @@
       <c r="BB35" s="1"/>
       <c r="BD35" s="4"/>
     </row>
-    <row r="37" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:80" x14ac:dyDescent="0.3">
       <c r="R37" s="6"/>
       <c r="S37" s="5"/>
       <c r="T37" s="1"/>
@@ -1236,7 +1283,7 @@
       <c r="AZ37" s="1"/>
       <c r="BB37" s="4"/>
     </row>
-    <row r="39" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:80" x14ac:dyDescent="0.3">
       <c r="Q39" s="5"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -1273,7 +1320,7 @@
       <c r="AX39" s="1"/>
       <c r="AZ39" s="4"/>
     </row>
-    <row r="41" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:80" x14ac:dyDescent="0.3">
       <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1309,7 +1356,7 @@
       <c r="AV41" s="1"/>
       <c r="AX41" s="4"/>
     </row>
-    <row r="45" spans="16:80" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:80" x14ac:dyDescent="0.3">
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -1375,28 +1422,29 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
     </row>
-    <row r="49" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AP49" s="1"/>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1"/>
-      <c r="BL49" s="1"/>
+    <row r="48" spans="16:80" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="32:80" x14ac:dyDescent="0.3">
+      <c r="AP49" s="17"/>
+      <c r="AS49" s="17"/>
+      <c r="AT49" s="17"/>
+      <c r="AU49" s="17"/>
+      <c r="AV49" s="17"/>
+      <c r="AW49" s="17"/>
+      <c r="AX49" s="17"/>
+      <c r="AY49" s="17"/>
+      <c r="AZ49" s="17"/>
+      <c r="BA49" s="17"/>
+      <c r="BB49" s="17"/>
+      <c r="BC49" s="25"/>
+      <c r="BD49" s="17"/>
+      <c r="BE49" s="25"/>
+      <c r="BF49" s="17"/>
+      <c r="BG49" s="17"/>
+      <c r="BH49" s="17"/>
+      <c r="BI49" s="17"/>
+      <c r="BJ49" s="17"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="11"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
       <c r="BO49" s="1"/>
@@ -1414,31 +1462,56 @@
       <c r="CA49" s="1"/>
       <c r="CB49" s="1"/>
     </row>
-    <row r="51" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-      <c r="BC51" s="1"/>
-      <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
-      <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
-      <c r="BJ51" s="1"/>
-      <c r="BK51" s="1"/>
-      <c r="BL51" s="1"/>
+    <row r="50" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP50" s="18"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="18"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="18"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="18"/>
+      <c r="AZ50" s="18"/>
+      <c r="BA50" s="18"/>
+      <c r="BB50" s="18"/>
+      <c r="BC50" s="23"/>
+      <c r="BD50" s="18"/>
+      <c r="BE50" s="23"/>
+      <c r="BF50" s="18"/>
+      <c r="BG50" s="18"/>
+      <c r="BH50" s="18"/>
+      <c r="BI50" s="18"/>
+      <c r="BJ50" s="18"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="12"/>
+    </row>
+    <row r="51" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="25"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="23"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18"/>
+      <c r="BC51" s="23"/>
+      <c r="BD51" s="18"/>
+      <c r="BE51" s="23"/>
+      <c r="BF51" s="18"/>
+      <c r="BG51" s="18"/>
+      <c r="BH51" s="18"/>
+      <c r="BI51" s="18"/>
+      <c r="BJ51" s="18"/>
+      <c r="BK51" s="16"/>
+      <c r="BL51" s="13"/>
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
       <c r="BO51" s="1"/>
@@ -1455,21 +1528,58 @@
       <c r="BZ51" s="1"/>
       <c r="CB51" s="4"/>
     </row>
-    <row r="53" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
+    <row r="52" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="18"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="18"/>
+      <c r="AU52" s="18"/>
+      <c r="AV52" s="18"/>
+      <c r="AW52" s="18"/>
+      <c r="AX52" s="18"/>
+      <c r="AY52" s="18"/>
+      <c r="AZ52" s="18"/>
+      <c r="BA52" s="18"/>
+      <c r="BB52" s="18"/>
+      <c r="BC52" s="23"/>
+      <c r="BD52" s="18"/>
+      <c r="BE52" s="23"/>
+      <c r="BF52" s="18"/>
+      <c r="BG52" s="18"/>
+      <c r="BH52" s="18"/>
+      <c r="BI52" s="18"/>
+      <c r="BJ52" s="18"/>
+    </row>
+    <row r="53" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="18"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="18"/>
+      <c r="AU53" s="18"/>
+      <c r="AV53" s="18"/>
+      <c r="AW53" s="18"/>
+      <c r="AX53" s="18"/>
+      <c r="AY53" s="18"/>
+      <c r="AZ53" s="18"/>
+      <c r="BA53" s="18"/>
+      <c r="BB53" s="18"/>
+      <c r="BC53" s="24"/>
+      <c r="BD53" s="18"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="19"/>
+      <c r="BG53" s="19"/>
+      <c r="BH53" s="19"/>
+      <c r="BI53" s="19"/>
+      <c r="BJ53" s="19"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
       <c r="BM53" s="1"/>
@@ -1486,30 +1596,52 @@
       <c r="BX53" s="1"/>
       <c r="BZ53" s="4"/>
     </row>
-    <row r="55" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
+    <row r="54" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="23"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="18"/>
+      <c r="AU54" s="18"/>
+      <c r="AV54" s="18"/>
+      <c r="AW54" s="18"/>
+      <c r="AX54" s="18"/>
+      <c r="AY54" s="18"/>
+      <c r="AZ54" s="18"/>
+      <c r="BA54" s="18"/>
+      <c r="BB54" s="18"/>
+      <c r="BD54" s="18"/>
+    </row>
+    <row r="55" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="23"/>
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="24"/>
+      <c r="AT55" s="19"/>
+      <c r="AU55" s="19"/>
+      <c r="AV55" s="19"/>
+      <c r="AW55" s="19"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="19"/>
+      <c r="AZ55" s="19"/>
+      <c r="BA55" s="19"/>
+      <c r="BB55" s="19"/>
+      <c r="BC55" s="25"/>
+      <c r="BD55" s="24"/>
+      <c r="BE55" s="25"/>
+      <c r="BF55" s="17"/>
+      <c r="BG55" s="17"/>
+      <c r="BH55" s="17"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="11"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
       <c r="BM55" s="1"/>
@@ -1524,30 +1656,44 @@
       <c r="BV55" s="1"/>
       <c r="BX55" s="4"/>
     </row>
-    <row r="57" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AK57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="AZ57" s="1"/>
-      <c r="BA57" s="1"/>
-      <c r="BC57" s="1"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
+    <row r="56" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AL56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="18"/>
+      <c r="BC56" s="18"/>
+      <c r="BE56" s="18"/>
+      <c r="BF56" s="18"/>
+      <c r="BG56" s="18"/>
+      <c r="BH56" s="18"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="12"/>
+    </row>
+    <row r="57" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="18"/>
+      <c r="AN57" s="17"/>
+      <c r="AO57" s="17"/>
+      <c r="AP57" s="24"/>
+      <c r="AQ57" s="24"/>
+      <c r="AR57" s="19"/>
+      <c r="AS57" s="25"/>
+      <c r="AT57" s="17"/>
+      <c r="AU57" s="17"/>
+      <c r="AV57" s="17"/>
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="17"/>
+      <c r="AY57" s="17"/>
+      <c r="AZ57" s="17"/>
+      <c r="BA57" s="25"/>
+      <c r="BC57" s="18"/>
+      <c r="BD57" s="25"/>
+      <c r="BE57" s="23"/>
+      <c r="BF57" s="18"/>
+      <c r="BG57" s="18"/>
+      <c r="BH57" s="18"/>
+      <c r="BI57" s="16"/>
+      <c r="BJ57" s="13"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
@@ -1560,20 +1706,51 @@
       <c r="BT57" s="1"/>
       <c r="BV57" s="4"/>
     </row>
-    <row r="59" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="5"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
-      <c r="BC59" s="1"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
+    <row r="58" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AS58" s="18"/>
+      <c r="AT58" s="18"/>
+      <c r="AU58" s="18"/>
+      <c r="AV58" s="18"/>
+      <c r="AW58" s="18"/>
+      <c r="AX58" s="18"/>
+      <c r="AY58" s="18"/>
+      <c r="AZ58" s="18"/>
+      <c r="BA58" s="23"/>
+      <c r="BC58" s="18"/>
+      <c r="BD58" s="23"/>
+      <c r="BE58" s="23"/>
+      <c r="BF58" s="18"/>
+      <c r="BG58" s="18"/>
+      <c r="BH58" s="18"/>
+    </row>
+    <row r="59" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="25"/>
+      <c r="AR59" s="17"/>
+      <c r="AS59" s="23"/>
+      <c r="AT59" s="18"/>
+      <c r="AU59" s="18"/>
+      <c r="AV59" s="18"/>
+      <c r="AW59" s="18"/>
+      <c r="AX59" s="18"/>
+      <c r="AY59" s="18"/>
+      <c r="AZ59" s="18"/>
+      <c r="BA59" s="23"/>
+      <c r="BB59" s="25"/>
+      <c r="BC59" s="24"/>
+      <c r="BD59" s="23"/>
+      <c r="BE59" s="24"/>
+      <c r="BF59" s="19"/>
+      <c r="BG59" s="19"/>
+      <c r="BH59" s="19"/>
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
@@ -1586,29 +1763,53 @@
       <c r="BR59" s="1"/>
       <c r="BT59" s="4"/>
     </row>
-    <row r="61" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AH61" s="6"/>
-      <c r="AI61" s="5"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
+    <row r="60" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="23"/>
+      <c r="AL60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="23"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="23"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="18"/>
+      <c r="AW60" s="18"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="18"/>
+      <c r="AZ60" s="18"/>
+      <c r="BA60" s="23"/>
+      <c r="BB60" s="23"/>
+      <c r="BD60" s="18"/>
+    </row>
+    <row r="61" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="19"/>
+      <c r="AN61" s="18"/>
+      <c r="AO61" s="18"/>
+      <c r="AP61" s="23"/>
+      <c r="AQ61" s="25"/>
+      <c r="AR61" s="23"/>
+      <c r="AS61" s="23"/>
+      <c r="AT61" s="18"/>
+      <c r="AU61" s="18"/>
+      <c r="AV61" s="18"/>
+      <c r="AW61" s="18"/>
+      <c r="AX61" s="18"/>
+      <c r="AY61" s="18"/>
+      <c r="AZ61" s="18"/>
+      <c r="BA61" s="24"/>
+      <c r="BB61" s="23"/>
+      <c r="BC61" s="25"/>
+      <c r="BD61" s="24"/>
+      <c r="BE61" s="25"/>
+      <c r="BF61" s="17"/>
+      <c r="BG61" s="14"/>
+      <c r="BH61" s="11"/>
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
@@ -1619,33 +1820,60 @@
       <c r="BP61" s="1"/>
       <c r="BR61" s="4"/>
     </row>
-    <row r="63" spans="32:80" x14ac:dyDescent="0.25">
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
+    <row r="62" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="18"/>
+      <c r="AJ62" s="23"/>
+      <c r="AN62" s="18"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="23"/>
+      <c r="AS62" s="23"/>
+      <c r="AT62" s="18"/>
+      <c r="AU62" s="18"/>
+      <c r="AV62" s="18"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="18"/>
+      <c r="AZ62" s="18"/>
+      <c r="BB62" s="18"/>
+      <c r="BC62" s="23"/>
+      <c r="BE62" s="18"/>
+      <c r="BF62" s="18"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="12"/>
+    </row>
+    <row r="63" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="18"/>
+      <c r="AO63" s="18"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="23"/>
+      <c r="AR63" s="23"/>
+      <c r="AS63" s="24"/>
+      <c r="AT63" s="19"/>
+      <c r="AU63" s="19"/>
+      <c r="AV63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="19"/>
+      <c r="AY63" s="19"/>
+      <c r="AZ63" s="18"/>
+      <c r="BA63" s="25"/>
+      <c r="BB63" s="24"/>
+      <c r="BC63" s="23"/>
+      <c r="BD63" s="25"/>
+      <c r="BE63" s="23"/>
+      <c r="BF63" s="18"/>
+      <c r="BG63" s="16"/>
+      <c r="BH63" s="13"/>
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
@@ -1654,28 +1882,50 @@
       <c r="BN63" s="1"/>
       <c r="BP63" s="4"/>
     </row>
-    <row r="65" spans="17:66" x14ac:dyDescent="0.25">
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
-      <c r="BC65" s="1"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
+    <row r="64" spans="32:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="18"/>
+      <c r="AK64" s="18"/>
+      <c r="AL64" s="18"/>
+      <c r="AM64" s="18"/>
+      <c r="AN64" s="18"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="23"/>
+      <c r="AR64" s="23"/>
+      <c r="AZ64" s="18"/>
+      <c r="BA64" s="23"/>
+      <c r="BC64" s="18"/>
+      <c r="BD64" s="23"/>
+      <c r="BE64" s="23"/>
+      <c r="BF64" s="18"/>
+    </row>
+    <row r="65" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="25"/>
+      <c r="AK65" s="23"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
+      <c r="AP65" s="24"/>
+      <c r="AQ65" s="23"/>
+      <c r="AR65" s="24"/>
+      <c r="AY65" s="17"/>
+      <c r="AZ65" s="24"/>
+      <c r="BA65" s="23"/>
+      <c r="BB65" s="25"/>
+      <c r="BC65" s="24"/>
+      <c r="BD65" s="23"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="19"/>
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
@@ -1684,81 +1934,142 @@
       <c r="BL65" s="1"/>
       <c r="BN65" s="4"/>
     </row>
-    <row r="67" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="18"/>
+      <c r="AJ66" s="18"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="18"/>
+      <c r="AM66" s="18"/>
+      <c r="AN66" s="18"/>
+      <c r="AO66" s="18"/>
+      <c r="AQ66" s="18"/>
+      <c r="AY66" s="18"/>
+      <c r="BA66" s="18"/>
+      <c r="BB66" s="23"/>
+      <c r="BD66" s="18"/>
+    </row>
+    <row r="67" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AB67" s="6"/>
       <c r="AC67" s="5"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="19"/>
+      <c r="AM67" s="19"/>
+      <c r="AN67" s="19"/>
+      <c r="AO67" s="19"/>
+      <c r="AQ67" s="19"/>
+      <c r="AR67" s="25"/>
+      <c r="AS67" s="17"/>
+      <c r="AT67" s="17"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="25"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="23"/>
+      <c r="AZ67" s="25"/>
+      <c r="BA67" s="24"/>
+      <c r="BB67" s="23"/>
+      <c r="BC67" s="25"/>
+      <c r="BD67" s="24"/>
+      <c r="BE67" s="14"/>
+      <c r="BF67" s="11"/>
       <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
       <c r="BL67" s="4"/>
     </row>
-    <row r="69" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE68" s="18"/>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="18"/>
+      <c r="AJ68" s="23"/>
+      <c r="AR68" s="18"/>
+      <c r="AS68" s="18"/>
+      <c r="AT68" s="18"/>
+      <c r="AU68" s="18"/>
+      <c r="AV68" s="18"/>
+      <c r="AW68" s="23"/>
+      <c r="AX68" s="18"/>
+      <c r="AY68" s="23"/>
+      <c r="AZ68" s="23"/>
+      <c r="BB68" s="18"/>
+      <c r="BC68" s="23"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+    </row>
+    <row r="69" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Z69" s="6"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="23"/>
+      <c r="AI69" s="18"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="17"/>
+      <c r="AM69" s="17"/>
+      <c r="AN69" s="17"/>
+      <c r="AO69" s="17"/>
+      <c r="AP69" s="17"/>
+      <c r="AQ69" s="17"/>
+      <c r="AR69" s="18"/>
+      <c r="AS69" s="18"/>
+      <c r="AT69" s="18"/>
+      <c r="AU69" s="18"/>
+      <c r="AV69" s="18"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="18"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="25"/>
+      <c r="BB69" s="24"/>
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="25"/>
+      <c r="BE69" s="16"/>
+      <c r="BF69" s="13"/>
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
       <c r="BJ69" s="4"/>
     </row>
-    <row r="71" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="23"/>
+      <c r="AI70" s="18"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="18"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="18"/>
+      <c r="AQ70" s="18"/>
+      <c r="AR70" s="18"/>
+      <c r="AS70" s="18"/>
+      <c r="AT70" s="18"/>
+      <c r="AU70" s="18"/>
+      <c r="AV70" s="18"/>
+      <c r="AW70" s="23"/>
+      <c r="AX70" s="18"/>
+      <c r="AZ70" s="18"/>
+      <c r="BA70" s="23"/>
+      <c r="BC70" s="18"/>
+      <c r="BD70" s="23"/>
+    </row>
+    <row r="71" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="X71" s="6"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="1"/>
@@ -1767,31 +2078,57 @@
       <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="19"/>
+      <c r="AJ71" s="25"/>
+      <c r="AK71" s="23"/>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="18"/>
+      <c r="AN71" s="18"/>
+      <c r="AO71" s="18"/>
+      <c r="AP71" s="18"/>
+      <c r="AQ71" s="18"/>
+      <c r="AR71" s="18"/>
+      <c r="AS71" s="18"/>
+      <c r="AT71" s="18"/>
+      <c r="AU71" s="18"/>
+      <c r="AV71" s="18"/>
+      <c r="AW71" s="24"/>
+      <c r="AX71" s="18"/>
+      <c r="AY71" s="25"/>
+      <c r="AZ71" s="24"/>
+      <c r="BA71" s="23"/>
+      <c r="BB71" s="25"/>
+      <c r="BC71" s="24"/>
+      <c r="BD71" s="23"/>
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
       <c r="BH71" s="4"/>
     </row>
-    <row r="73" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="23"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+      <c r="AN72" s="18"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="18"/>
+      <c r="AQ72" s="18"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="18"/>
+      <c r="AT72" s="18"/>
+      <c r="AU72" s="18"/>
+      <c r="AV72" s="18"/>
+      <c r="AX72" s="18"/>
+      <c r="AY72" s="23"/>
+      <c r="BA72" s="18"/>
+      <c r="BB72" s="23"/>
+      <c r="BD72" s="18"/>
+    </row>
+    <row r="73" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V73" s="6"/>
       <c r="W73" s="5"/>
       <c r="X73" s="1"/>
@@ -1803,33 +2140,42 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-      <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
-      <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="1"/>
-      <c r="AT73" s="1"/>
-      <c r="AU73" s="1"/>
-      <c r="AV73" s="1"/>
-      <c r="AW73" s="1"/>
-      <c r="AX73" s="1"/>
-      <c r="AY73" s="1"/>
-      <c r="AZ73" s="1"/>
-      <c r="BA73" s="1"/>
-      <c r="BB73" s="1"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="17"/>
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="19"/>
+      <c r="AM73" s="19"/>
+      <c r="AN73" s="19"/>
+      <c r="AO73" s="19"/>
+      <c r="AP73" s="19"/>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="19"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="19"/>
+      <c r="AU73" s="19"/>
+      <c r="AV73" s="19"/>
+      <c r="AW73" s="25"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="23"/>
+      <c r="AZ73" s="25"/>
+      <c r="BA73" s="24"/>
+      <c r="BB73" s="23"/>
       <c r="BC73" s="1"/>
-      <c r="BD73" s="1"/>
+      <c r="BD73" s="19"/>
       <c r="BF73" s="4"/>
     </row>
-    <row r="75" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="23"/>
+      <c r="AW74" s="18"/>
+      <c r="AY74" s="18"/>
+      <c r="AZ74" s="23"/>
+      <c r="BB74" s="18"/>
+    </row>
+    <row r="75" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T75" s="6"/>
       <c r="U75" s="5"/>
       <c r="V75" s="1"/>
@@ -1844,30 +2190,48 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
-      <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-      <c r="AP75" s="1"/>
-      <c r="AQ75" s="1"/>
-      <c r="AR75" s="1"/>
-      <c r="AS75" s="1"/>
-      <c r="AT75" s="1"/>
-      <c r="AU75" s="1"/>
-      <c r="AV75" s="1"/>
-      <c r="AW75" s="1"/>
-      <c r="AX75" s="1"/>
-      <c r="AY75" s="1"/>
-      <c r="AZ75" s="1"/>
+      <c r="AH75" s="13"/>
+      <c r="AI75" s="18"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="25"/>
+      <c r="AL75" s="17"/>
+      <c r="AM75" s="17"/>
+      <c r="AN75" s="17"/>
+      <c r="AO75" s="17"/>
+      <c r="AP75" s="17"/>
+      <c r="AQ75" s="17"/>
+      <c r="AR75" s="17"/>
+      <c r="AS75" s="17"/>
+      <c r="AT75" s="17"/>
+      <c r="AU75" s="17"/>
+      <c r="AV75" s="17"/>
+      <c r="AW75" s="23"/>
+      <c r="AX75" s="25"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="23"/>
       <c r="BA75" s="1"/>
-      <c r="BB75" s="1"/>
+      <c r="BB75" s="19"/>
       <c r="BD75" s="4"/>
     </row>
-    <row r="77" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AI76" s="18"/>
+      <c r="AK76" s="18"/>
+      <c r="AL76" s="18"/>
+      <c r="AM76" s="18"/>
+      <c r="AN76" s="18"/>
+      <c r="AO76" s="18"/>
+      <c r="AP76" s="18"/>
+      <c r="AQ76" s="18"/>
+      <c r="AR76" s="18"/>
+      <c r="AS76" s="18"/>
+      <c r="AT76" s="18"/>
+      <c r="AU76" s="18"/>
+      <c r="AV76" s="18"/>
+      <c r="AW76" s="23"/>
+      <c r="AX76" s="23"/>
+      <c r="AZ76" s="18"/>
+    </row>
+    <row r="77" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R77" s="6"/>
       <c r="S77" s="5"/>
       <c r="T77" s="1"/>
@@ -1885,27 +2249,43 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-      <c r="AP77" s="1"/>
-      <c r="AQ77" s="1"/>
-      <c r="AR77" s="1"/>
-      <c r="AS77" s="1"/>
-      <c r="AT77" s="1"/>
-      <c r="AU77" s="1"/>
-      <c r="AV77" s="1"/>
-      <c r="AW77" s="1"/>
-      <c r="AX77" s="1"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="14"/>
+      <c r="AK77" s="18"/>
+      <c r="AL77" s="18"/>
+      <c r="AM77" s="18"/>
+      <c r="AN77" s="18"/>
+      <c r="AO77" s="18"/>
+      <c r="AP77" s="18"/>
+      <c r="AQ77" s="18"/>
+      <c r="AR77" s="18"/>
+      <c r="AS77" s="18"/>
+      <c r="AT77" s="18"/>
+      <c r="AU77" s="18"/>
+      <c r="AV77" s="18"/>
+      <c r="AW77" s="24"/>
+      <c r="AX77" s="23"/>
       <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
+      <c r="AZ77" s="19"/>
       <c r="BB77" s="4"/>
     </row>
-    <row r="79" spans="17:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="17:66" x14ac:dyDescent="0.3">
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="18"/>
+      <c r="AL78" s="18"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="18"/>
+      <c r="AO78" s="18"/>
+      <c r="AP78" s="18"/>
+      <c r="AQ78" s="18"/>
+      <c r="AR78" s="18"/>
+      <c r="AS78" s="18"/>
+      <c r="AT78" s="18"/>
+      <c r="AU78" s="18"/>
+      <c r="AV78" s="18"/>
+      <c r="AX78" s="18"/>
+    </row>
+    <row r="79" spans="17:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q79" s="5"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -1925,24 +2305,24 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="19"/>
+      <c r="AL79" s="19"/>
+      <c r="AM79" s="19"/>
+      <c r="AN79" s="19"/>
+      <c r="AO79" s="19"/>
+      <c r="AP79" s="19"/>
+      <c r="AQ79" s="19"/>
+      <c r="AR79" s="19"/>
+      <c r="AS79" s="19"/>
+      <c r="AT79" s="19"/>
+      <c r="AU79" s="19"/>
+      <c r="AV79" s="19"/>
       <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
+      <c r="AX79" s="19"/>
       <c r="AZ79" s="4"/>
     </row>
-    <row r="81" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="17:80" x14ac:dyDescent="0.3">
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -1977,6 +2357,1280 @@
       <c r="AV81" s="1"/>
       <c r="AX81" s="4"/>
     </row>
+    <row r="84" spans="17:80" x14ac:dyDescent="0.3">
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="3"/>
+      <c r="AX84" s="3"/>
+      <c r="AY84" s="3"/>
+      <c r="AZ84" s="3"/>
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
+      <c r="BC84" s="3"/>
+      <c r="BD84" s="3"/>
+      <c r="BE84" s="3"/>
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+      <c r="BI84" s="3"/>
+      <c r="BJ84" s="3"/>
+      <c r="BK84" s="3"/>
+      <c r="BL84" s="3"/>
+      <c r="BM84" s="3"/>
+      <c r="BN84" s="3"/>
+      <c r="BO84" s="3"/>
+      <c r="BP84" s="3"/>
+      <c r="BQ84" s="3"/>
+      <c r="BR84" s="3"/>
+      <c r="BS84" s="3"/>
+      <c r="BT84" s="3"/>
+      <c r="BU84" s="3"/>
+      <c r="BV84" s="3"/>
+      <c r="BW84" s="3"/>
+      <c r="BX84" s="3"/>
+      <c r="BY84" s="3"/>
+      <c r="BZ84" s="3"/>
+      <c r="CA84" s="3"/>
+      <c r="CB84" s="3"/>
+    </row>
+    <row r="87" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="17:80" x14ac:dyDescent="0.3">
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="17"/>
+      <c r="AI88" s="17"/>
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+      <c r="AL88" s="17"/>
+      <c r="AM88" s="17"/>
+      <c r="AN88" s="17"/>
+      <c r="AO88" s="17"/>
+      <c r="AP88" s="17"/>
+      <c r="AQ88" s="17"/>
+      <c r="AR88" s="17"/>
+      <c r="AS88" s="17"/>
+      <c r="AT88" s="17"/>
+      <c r="AU88" s="17"/>
+      <c r="AV88" s="17"/>
+      <c r="AW88" s="17"/>
+      <c r="AX88" s="17"/>
+      <c r="AY88" s="17"/>
+      <c r="AZ88" s="17"/>
+      <c r="BA88" s="17"/>
+      <c r="BB88" s="17"/>
+      <c r="BC88" s="17"/>
+      <c r="BD88" s="17"/>
+      <c r="BE88" s="17"/>
+      <c r="BF88" s="17"/>
+      <c r="BG88" s="17"/>
+      <c r="BH88" s="17"/>
+      <c r="BI88" s="20"/>
+      <c r="BJ88" s="17"/>
+      <c r="BK88" s="17"/>
+      <c r="BL88" s="17"/>
+      <c r="BM88" s="25"/>
+      <c r="BN88" s="17"/>
+      <c r="BO88" s="17"/>
+      <c r="BP88" s="17"/>
+      <c r="BQ88" s="14"/>
+      <c r="BR88" s="11"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+    </row>
+    <row r="89" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD89" s="18"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="18"/>
+      <c r="AH89" s="18"/>
+      <c r="AI89" s="18"/>
+      <c r="AJ89" s="18"/>
+      <c r="AK89" s="18"/>
+      <c r="AL89" s="18"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="18"/>
+      <c r="AO89" s="18"/>
+      <c r="AP89" s="18"/>
+      <c r="AQ89" s="18"/>
+      <c r="AR89" s="18"/>
+      <c r="AS89" s="18"/>
+      <c r="AT89" s="18"/>
+      <c r="AU89" s="18"/>
+      <c r="AV89" s="18"/>
+      <c r="AW89" s="18"/>
+      <c r="AX89" s="18"/>
+      <c r="AY89" s="18"/>
+      <c r="AZ89" s="18"/>
+      <c r="BA89" s="18"/>
+      <c r="BB89" s="18"/>
+      <c r="BC89" s="18"/>
+      <c r="BD89" s="18"/>
+      <c r="BE89" s="18"/>
+      <c r="BF89" s="18"/>
+      <c r="BG89" s="18"/>
+      <c r="BH89" s="18"/>
+      <c r="BI89" s="21"/>
+      <c r="BJ89" s="18"/>
+      <c r="BK89" s="18"/>
+      <c r="BL89" s="18"/>
+      <c r="BM89" s="23"/>
+      <c r="BN89" s="18"/>
+      <c r="BO89" s="18"/>
+      <c r="BP89" s="18"/>
+      <c r="BQ89" s="15"/>
+      <c r="BR89" s="12"/>
+    </row>
+    <row r="90" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="18"/>
+      <c r="AI90" s="18"/>
+      <c r="AJ90" s="18"/>
+      <c r="AK90" s="18"/>
+      <c r="AL90" s="18"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="18"/>
+      <c r="AO90" s="18"/>
+      <c r="AP90" s="18"/>
+      <c r="AQ90" s="18"/>
+      <c r="AR90" s="18"/>
+      <c r="AS90" s="18"/>
+      <c r="AT90" s="18"/>
+      <c r="AU90" s="18"/>
+      <c r="AV90" s="18"/>
+      <c r="AW90" s="18"/>
+      <c r="AX90" s="18"/>
+      <c r="AY90" s="18"/>
+      <c r="AZ90" s="18"/>
+      <c r="BA90" s="18"/>
+      <c r="BB90" s="18"/>
+      <c r="BC90" s="18"/>
+      <c r="BD90" s="18"/>
+      <c r="BE90" s="18"/>
+      <c r="BF90" s="18"/>
+      <c r="BG90" s="18"/>
+      <c r="BH90" s="18"/>
+      <c r="BI90" s="21"/>
+      <c r="BJ90" s="18"/>
+      <c r="BK90" s="18"/>
+      <c r="BL90" s="18"/>
+      <c r="BM90" s="23"/>
+      <c r="BN90" s="18"/>
+      <c r="BO90" s="18"/>
+      <c r="BP90" s="18"/>
+      <c r="BQ90" s="16"/>
+      <c r="BR90" s="13"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CB90" s="4"/>
+    </row>
+    <row r="91" spans="17:80" x14ac:dyDescent="0.3">
+      <c r="AC91" s="18"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="18"/>
+      <c r="AI91" s="18"/>
+      <c r="AJ91" s="18"/>
+      <c r="AK91" s="18"/>
+      <c r="AL91" s="18"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="18"/>
+      <c r="AO91" s="18"/>
+      <c r="AP91" s="18"/>
+      <c r="AQ91" s="18"/>
+      <c r="AR91" s="18"/>
+      <c r="AS91" s="18"/>
+      <c r="AT91" s="18"/>
+      <c r="AU91" s="18"/>
+      <c r="AV91" s="18"/>
+      <c r="AW91" s="18"/>
+      <c r="AX91" s="18"/>
+      <c r="AY91" s="18"/>
+      <c r="AZ91" s="18"/>
+      <c r="BA91" s="18"/>
+      <c r="BB91" s="18"/>
+      <c r="BC91" s="18"/>
+      <c r="BD91" s="18"/>
+      <c r="BE91" s="18"/>
+      <c r="BF91" s="18"/>
+      <c r="BG91" s="18"/>
+      <c r="BH91" s="18"/>
+      <c r="BI91" s="21"/>
+      <c r="BJ91" s="18"/>
+      <c r="BK91" s="18"/>
+      <c r="BL91" s="18"/>
+      <c r="BM91" s="23"/>
+      <c r="BN91" s="18"/>
+      <c r="BO91" s="18"/>
+      <c r="BP91" s="18"/>
+    </row>
+    <row r="92" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="19"/>
+      <c r="AH92" s="19"/>
+      <c r="AI92" s="19"/>
+      <c r="AJ92" s="19"/>
+      <c r="AK92" s="19"/>
+      <c r="AL92" s="19"/>
+      <c r="AM92" s="19"/>
+      <c r="AN92" s="19"/>
+      <c r="AO92" s="19"/>
+      <c r="AP92" s="19"/>
+      <c r="AQ92" s="19"/>
+      <c r="AR92" s="19"/>
+      <c r="AS92" s="19"/>
+      <c r="AT92" s="19"/>
+      <c r="AU92" s="19"/>
+      <c r="AV92" s="19"/>
+      <c r="AW92" s="19"/>
+      <c r="AX92" s="19"/>
+      <c r="AY92" s="19"/>
+      <c r="AZ92" s="19"/>
+      <c r="BA92" s="19"/>
+      <c r="BB92" s="19"/>
+      <c r="BC92" s="19"/>
+      <c r="BD92" s="19"/>
+      <c r="BE92" s="19"/>
+      <c r="BF92" s="19"/>
+      <c r="BG92" s="19"/>
+      <c r="BH92" s="19"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="19"/>
+      <c r="BK92" s="19"/>
+      <c r="BL92" s="18"/>
+      <c r="BM92" s="24"/>
+      <c r="BN92" s="19"/>
+      <c r="BO92" s="19"/>
+      <c r="BP92" s="19"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BZ92" s="4"/>
+    </row>
+    <row r="93" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="18"/>
+      <c r="AE93" s="23"/>
+      <c r="BL93" s="18"/>
+    </row>
+    <row r="94" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="25"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="25"/>
+      <c r="AI94" s="17"/>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+      <c r="AL94" s="17"/>
+      <c r="AM94" s="17"/>
+      <c r="AN94" s="17"/>
+      <c r="AO94" s="17"/>
+      <c r="AP94" s="17"/>
+      <c r="AQ94" s="17"/>
+      <c r="AR94" s="17"/>
+      <c r="AS94" s="17"/>
+      <c r="AT94" s="17"/>
+      <c r="AU94" s="17"/>
+      <c r="AV94" s="17"/>
+      <c r="AW94" s="17"/>
+      <c r="AX94" s="17"/>
+      <c r="AY94" s="17"/>
+      <c r="AZ94" s="17"/>
+      <c r="BA94" s="17"/>
+      <c r="BB94" s="17"/>
+      <c r="BC94" s="17"/>
+      <c r="BD94" s="17"/>
+      <c r="BE94" s="17"/>
+      <c r="BF94" s="17"/>
+      <c r="BG94" s="17"/>
+      <c r="BH94" s="17"/>
+      <c r="BI94" s="17"/>
+      <c r="BK94" s="17"/>
+      <c r="BL94" s="24"/>
+      <c r="BM94" s="25"/>
+      <c r="BN94" s="17"/>
+      <c r="BO94" s="14"/>
+      <c r="BP94" s="11"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BX94" s="4"/>
+    </row>
+    <row r="95" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC95" s="18"/>
+      <c r="AD95" s="18"/>
+      <c r="AF95" s="18"/>
+      <c r="AG95" s="18"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="18"/>
+      <c r="AJ95" s="18"/>
+      <c r="AK95" s="18"/>
+      <c r="AL95" s="18"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="18"/>
+      <c r="AO95" s="18"/>
+      <c r="AP95" s="18"/>
+      <c r="AQ95" s="18"/>
+      <c r="AR95" s="18"/>
+      <c r="AS95" s="18"/>
+      <c r="AT95" s="18"/>
+      <c r="AU95" s="18"/>
+      <c r="AV95" s="18"/>
+      <c r="AW95" s="18"/>
+      <c r="AX95" s="18"/>
+      <c r="AY95" s="18"/>
+      <c r="AZ95" s="18"/>
+      <c r="BA95" s="18"/>
+      <c r="BB95" s="18"/>
+      <c r="BC95" s="18"/>
+      <c r="BD95" s="18"/>
+      <c r="BE95" s="18"/>
+      <c r="BF95" s="18"/>
+      <c r="BG95" s="18"/>
+      <c r="BH95" s="18"/>
+      <c r="BI95" s="18"/>
+      <c r="BK95" s="18"/>
+      <c r="BM95" s="18"/>
+      <c r="BN95" s="18"/>
+      <c r="BO95" s="15"/>
+      <c r="BP95" s="12"/>
+    </row>
+    <row r="96" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="18"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="18"/>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="18"/>
+      <c r="AJ96" s="18"/>
+      <c r="AK96" s="18"/>
+      <c r="AL96" s="18"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="18"/>
+      <c r="AO96" s="18"/>
+      <c r="AP96" s="18"/>
+      <c r="AQ96" s="18"/>
+      <c r="AR96" s="18"/>
+      <c r="AS96" s="18"/>
+      <c r="AT96" s="18"/>
+      <c r="AU96" s="18"/>
+      <c r="AV96" s="18"/>
+      <c r="AW96" s="18"/>
+      <c r="AX96" s="18"/>
+      <c r="AY96" s="18"/>
+      <c r="AZ96" s="18"/>
+      <c r="BA96" s="18"/>
+      <c r="BB96" s="18"/>
+      <c r="BC96" s="18"/>
+      <c r="BD96" s="18"/>
+      <c r="BE96" s="18"/>
+      <c r="BF96" s="18"/>
+      <c r="BG96" s="18"/>
+      <c r="BH96" s="18"/>
+      <c r="BI96" s="18"/>
+      <c r="BK96" s="18"/>
+      <c r="BL96" s="25"/>
+      <c r="BM96" s="23"/>
+      <c r="BN96" s="18"/>
+      <c r="BO96" s="16"/>
+      <c r="BP96" s="13"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BV96" s="4"/>
+    </row>
+    <row r="97" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC97" s="18"/>
+      <c r="AD97" s="18"/>
+      <c r="AF97" s="18"/>
+      <c r="AG97" s="18"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="18"/>
+      <c r="AJ97" s="18"/>
+      <c r="AK97" s="18"/>
+      <c r="AL97" s="18"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="18"/>
+      <c r="AO97" s="18"/>
+      <c r="AP97" s="18"/>
+      <c r="AQ97" s="18"/>
+      <c r="AR97" s="18"/>
+      <c r="AS97" s="18"/>
+      <c r="AT97" s="18"/>
+      <c r="AU97" s="18"/>
+      <c r="AV97" s="18"/>
+      <c r="AW97" s="18"/>
+      <c r="AX97" s="18"/>
+      <c r="AY97" s="18"/>
+      <c r="AZ97" s="18"/>
+      <c r="BA97" s="18"/>
+      <c r="BB97" s="18"/>
+      <c r="BC97" s="18"/>
+      <c r="BD97" s="18"/>
+      <c r="BE97" s="18"/>
+      <c r="BF97" s="18"/>
+      <c r="BG97" s="18"/>
+      <c r="BH97" s="18"/>
+      <c r="BI97" s="18"/>
+      <c r="BK97" s="18"/>
+      <c r="BL97" s="23"/>
+      <c r="BM97" s="23"/>
+      <c r="BN97" s="18"/>
+    </row>
+    <row r="98" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC98" s="18"/>
+      <c r="AD98" s="18"/>
+      <c r="AF98" s="18"/>
+      <c r="AG98" s="18"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="18"/>
+      <c r="AJ98" s="18"/>
+      <c r="AK98" s="18"/>
+      <c r="AL98" s="18"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="18"/>
+      <c r="AO98" s="18"/>
+      <c r="AP98" s="18"/>
+      <c r="AQ98" s="18"/>
+      <c r="AR98" s="18"/>
+      <c r="AS98" s="18"/>
+      <c r="AT98" s="18"/>
+      <c r="AU98" s="18"/>
+      <c r="AV98" s="18"/>
+      <c r="AW98" s="18"/>
+      <c r="AX98" s="18"/>
+      <c r="AY98" s="18"/>
+      <c r="AZ98" s="18"/>
+      <c r="BA98" s="18"/>
+      <c r="BB98" s="18"/>
+      <c r="BC98" s="18"/>
+      <c r="BD98" s="18"/>
+      <c r="BE98" s="18"/>
+      <c r="BF98" s="18"/>
+      <c r="BG98" s="18"/>
+      <c r="BH98" s="18"/>
+      <c r="BI98" s="18"/>
+      <c r="BJ98" s="25"/>
+      <c r="BK98" s="24"/>
+      <c r="BL98" s="23"/>
+      <c r="BM98" s="24"/>
+      <c r="BN98" s="19"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
+      <c r="BR98" s="1"/>
+      <c r="BT98" s="4"/>
+    </row>
+    <row r="99" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC99" s="18"/>
+      <c r="AD99" s="18"/>
+      <c r="AF99" s="18"/>
+      <c r="AG99" s="18"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="18"/>
+      <c r="AJ99" s="18"/>
+      <c r="AK99" s="18"/>
+      <c r="AL99" s="18"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="18"/>
+      <c r="AO99" s="18"/>
+      <c r="AP99" s="18"/>
+      <c r="AQ99" s="18"/>
+      <c r="AR99" s="18"/>
+      <c r="AS99" s="18"/>
+      <c r="AT99" s="18"/>
+      <c r="AU99" s="18"/>
+      <c r="AV99" s="18"/>
+      <c r="AW99" s="18"/>
+      <c r="AX99" s="18"/>
+      <c r="AY99" s="18"/>
+      <c r="AZ99" s="18"/>
+      <c r="BA99" s="18"/>
+      <c r="BB99" s="18"/>
+      <c r="BC99" s="18"/>
+      <c r="BD99" s="18"/>
+      <c r="BE99" s="18"/>
+      <c r="BF99" s="18"/>
+      <c r="BG99" s="18"/>
+      <c r="BH99" s="18"/>
+      <c r="BI99" s="18"/>
+      <c r="BJ99" s="23"/>
+      <c r="BL99" s="18"/>
+    </row>
+    <row r="100" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC100" s="18"/>
+      <c r="AD100" s="18"/>
+      <c r="AF100" s="18"/>
+      <c r="AG100" s="18"/>
+      <c r="AH100" s="24"/>
+      <c r="AI100" s="19"/>
+      <c r="AJ100" s="19"/>
+      <c r="AK100" s="19"/>
+      <c r="AL100" s="19"/>
+      <c r="AM100" s="19"/>
+      <c r="AN100" s="19"/>
+      <c r="AO100" s="19"/>
+      <c r="AP100" s="19"/>
+      <c r="AQ100" s="19"/>
+      <c r="AR100" s="19"/>
+      <c r="AS100" s="19"/>
+      <c r="AT100" s="19"/>
+      <c r="AU100" s="19"/>
+      <c r="AV100" s="19"/>
+      <c r="AW100" s="19"/>
+      <c r="AX100" s="19"/>
+      <c r="AY100" s="19"/>
+      <c r="AZ100" s="19"/>
+      <c r="BA100" s="19"/>
+      <c r="BB100" s="19"/>
+      <c r="BC100" s="19"/>
+      <c r="BD100" s="19"/>
+      <c r="BE100" s="19"/>
+      <c r="BF100" s="19"/>
+      <c r="BG100" s="19"/>
+      <c r="BH100" s="18"/>
+      <c r="BI100" s="19"/>
+      <c r="BJ100" s="30"/>
+      <c r="BK100" s="20"/>
+      <c r="BL100" s="24"/>
+      <c r="BM100" s="14"/>
+      <c r="BN100" s="11"/>
+      <c r="BO100" s="1"/>
+      <c r="BP100" s="1"/>
+      <c r="BR100" s="4"/>
+    </row>
+    <row r="101" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC101" s="18"/>
+      <c r="AD101" s="18"/>
+      <c r="AF101" s="18"/>
+      <c r="AG101" s="18"/>
+      <c r="BH101" s="18"/>
+      <c r="BJ101" s="27"/>
+      <c r="BK101" s="21"/>
+      <c r="BM101" s="12"/>
+      <c r="BN101" s="12"/>
+    </row>
+    <row r="102" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC102" s="18"/>
+      <c r="AD102" s="18"/>
+      <c r="AF102" s="18"/>
+      <c r="AG102" s="18"/>
+      <c r="BH102" s="27"/>
+      <c r="BI102" s="17"/>
+      <c r="BJ102" s="28"/>
+      <c r="BK102" s="21"/>
+      <c r="BL102" s="25"/>
+      <c r="BM102" s="16"/>
+      <c r="BN102" s="13"/>
+      <c r="BP102" s="4"/>
+    </row>
+    <row r="103" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC103" s="18"/>
+      <c r="AD103" s="18"/>
+      <c r="AF103" s="18"/>
+      <c r="AG103" s="18"/>
+      <c r="BH103" s="27"/>
+      <c r="BI103" s="18"/>
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="23"/>
+    </row>
+    <row r="104" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC104" s="18"/>
+      <c r="AD104" s="18"/>
+      <c r="AF104" s="18"/>
+      <c r="AG104" s="18"/>
+      <c r="AJ104" s="17"/>
+      <c r="AK104" s="17"/>
+      <c r="AL104" s="17"/>
+      <c r="AM104" s="17"/>
+      <c r="AN104" s="17"/>
+      <c r="AO104" s="17"/>
+      <c r="AP104" s="17"/>
+      <c r="AQ104" s="17"/>
+      <c r="AR104" s="17"/>
+      <c r="AS104" s="17"/>
+      <c r="AT104" s="17"/>
+      <c r="AU104" s="17"/>
+      <c r="AV104" s="17"/>
+      <c r="AW104" s="25"/>
+      <c r="AX104" s="17"/>
+      <c r="AY104" s="25"/>
+      <c r="AZ104" s="17"/>
+      <c r="BA104" s="25"/>
+      <c r="BB104" s="17"/>
+      <c r="BC104" s="25"/>
+      <c r="BD104" s="17"/>
+      <c r="BE104" s="25"/>
+      <c r="BF104" s="17"/>
+      <c r="BG104" s="25"/>
+      <c r="BH104" s="28"/>
+      <c r="BI104" s="18"/>
+      <c r="BJ104" s="29"/>
+      <c r="BK104" s="22"/>
+      <c r="BL104" s="23"/>
+      <c r="BN104" s="4"/>
+    </row>
+    <row r="105" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC105" s="18"/>
+      <c r="AD105" s="18"/>
+      <c r="AF105" s="18"/>
+      <c r="AG105" s="18"/>
+      <c r="AJ105" s="18"/>
+      <c r="AK105" s="18"/>
+      <c r="AL105" s="18"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="18"/>
+      <c r="AO105" s="18"/>
+      <c r="AP105" s="18"/>
+      <c r="AQ105" s="18"/>
+      <c r="AR105" s="18"/>
+      <c r="AS105" s="18"/>
+      <c r="AT105" s="18"/>
+      <c r="AU105" s="18"/>
+      <c r="AV105" s="18"/>
+      <c r="AW105" s="23"/>
+      <c r="AX105" s="18"/>
+      <c r="AY105" s="23"/>
+      <c r="AZ105" s="18"/>
+      <c r="BA105" s="23"/>
+      <c r="BB105" s="18"/>
+      <c r="BC105" s="23"/>
+      <c r="BD105" s="18"/>
+      <c r="BE105" s="23"/>
+      <c r="BF105" s="18"/>
+      <c r="BG105" s="23"/>
+      <c r="BI105" s="18"/>
+      <c r="BJ105" s="23"/>
+      <c r="BL105" s="18"/>
+    </row>
+    <row r="106" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB106" s="10"/>
+      <c r="AC106" s="9"/>
+      <c r="AD106" s="18"/>
+      <c r="AF106" s="18"/>
+      <c r="AG106" s="18"/>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="18"/>
+      <c r="AK106" s="18"/>
+      <c r="AL106" s="18"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="18"/>
+      <c r="AO106" s="18"/>
+      <c r="AP106" s="18"/>
+      <c r="AQ106" s="18"/>
+      <c r="AR106" s="18"/>
+      <c r="AS106" s="18"/>
+      <c r="AT106" s="18"/>
+      <c r="AU106" s="18"/>
+      <c r="AV106" s="18"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="18"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="18"/>
+      <c r="BA106" s="23"/>
+      <c r="BB106" s="18"/>
+      <c r="BC106" s="23"/>
+      <c r="BD106" s="18"/>
+      <c r="BE106" s="23"/>
+      <c r="BF106" s="18"/>
+      <c r="BG106" s="23"/>
+      <c r="BH106" s="29"/>
+      <c r="BI106" s="19"/>
+      <c r="BJ106" s="23"/>
+      <c r="BL106" s="26"/>
+    </row>
+    <row r="107" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB107" s="18"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="18"/>
+      <c r="AF107" s="18"/>
+      <c r="AG107" s="18"/>
+      <c r="AI107" s="18"/>
+      <c r="AJ107" s="18"/>
+      <c r="AK107" s="18"/>
+      <c r="AL107" s="18"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="18"/>
+      <c r="AO107" s="18"/>
+      <c r="AP107" s="18"/>
+      <c r="AQ107" s="18"/>
+      <c r="AR107" s="18"/>
+      <c r="AS107" s="18"/>
+      <c r="AT107" s="18"/>
+      <c r="AU107" s="18"/>
+      <c r="AV107" s="18"/>
+      <c r="AW107" s="23"/>
+      <c r="AX107" s="18"/>
+      <c r="AY107" s="23"/>
+      <c r="AZ107" s="18"/>
+      <c r="BA107" s="23"/>
+      <c r="BB107" s="18"/>
+      <c r="BC107" s="23"/>
+      <c r="BD107" s="18"/>
+      <c r="BE107" s="23"/>
+      <c r="BF107" s="18"/>
+      <c r="BG107" s="23"/>
+      <c r="BH107" s="23"/>
+      <c r="BJ107" s="18"/>
+    </row>
+    <row r="108" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z108" s="10"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="19"/>
+      <c r="AF108" s="18"/>
+      <c r="AG108" s="18"/>
+      <c r="AI108" s="18"/>
+      <c r="AJ108" s="18"/>
+      <c r="AK108" s="18"/>
+      <c r="AL108" s="18"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="18"/>
+      <c r="AO108" s="18"/>
+      <c r="AP108" s="18"/>
+      <c r="AQ108" s="18"/>
+      <c r="AR108" s="18"/>
+      <c r="AS108" s="18"/>
+      <c r="AT108" s="18"/>
+      <c r="AU108" s="18"/>
+      <c r="AV108" s="18"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="18"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="18"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="18"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="18"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="18"/>
+      <c r="BG108" s="24"/>
+      <c r="BH108" s="23"/>
+      <c r="BJ108" s="26"/>
+    </row>
+    <row r="109" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z109" s="18"/>
+      <c r="AA109" s="18"/>
+      <c r="AB109" s="23"/>
+      <c r="AF109" s="18"/>
+      <c r="AG109" s="18"/>
+      <c r="AI109" s="18"/>
+      <c r="AJ109" s="18"/>
+      <c r="AK109" s="18"/>
+      <c r="AL109" s="18"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="18"/>
+      <c r="AO109" s="18"/>
+      <c r="AP109" s="18"/>
+      <c r="AQ109" s="18"/>
+      <c r="AR109" s="18"/>
+      <c r="AS109" s="18"/>
+      <c r="AT109" s="18"/>
+      <c r="AU109" s="18"/>
+      <c r="AV109" s="18"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="18"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="18"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="18"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="18"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="18"/>
+      <c r="BH109" s="18"/>
+    </row>
+    <row r="110" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X110" s="10"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="23"/>
+      <c r="AA110" s="18"/>
+      <c r="AB110" s="24"/>
+      <c r="AC110" s="25"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="18"/>
+      <c r="AG110" s="18"/>
+      <c r="AI110" s="18"/>
+      <c r="AJ110" s="18"/>
+      <c r="AK110" s="18"/>
+      <c r="AL110" s="18"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="18"/>
+      <c r="AO110" s="18"/>
+      <c r="AP110" s="18"/>
+      <c r="AQ110" s="18"/>
+      <c r="AR110" s="18"/>
+      <c r="AS110" s="18"/>
+      <c r="AT110" s="18"/>
+      <c r="AU110" s="18"/>
+      <c r="AV110" s="18"/>
+      <c r="AW110" s="23"/>
+      <c r="AX110" s="18"/>
+      <c r="AY110" s="23"/>
+      <c r="AZ110" s="18"/>
+      <c r="BA110" s="23"/>
+      <c r="BB110" s="18"/>
+      <c r="BC110" s="23"/>
+      <c r="BD110" s="18"/>
+      <c r="BE110" s="24"/>
+      <c r="BF110" s="18"/>
+      <c r="BH110" s="26"/>
+    </row>
+    <row r="111" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X111" s="12"/>
+      <c r="Y111" s="18"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="18"/>
+      <c r="AC111" s="18"/>
+      <c r="AD111" s="18"/>
+      <c r="AE111" s="18"/>
+      <c r="AF111" s="18"/>
+      <c r="AG111" s="18"/>
+      <c r="AI111" s="18"/>
+      <c r="AJ111" s="18"/>
+      <c r="AK111" s="18"/>
+      <c r="AL111" s="18"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="18"/>
+      <c r="AO111" s="18"/>
+      <c r="AP111" s="18"/>
+      <c r="AQ111" s="18"/>
+      <c r="AR111" s="18"/>
+      <c r="AS111" s="18"/>
+      <c r="AT111" s="18"/>
+      <c r="AU111" s="18"/>
+      <c r="AV111" s="18"/>
+      <c r="AW111" s="23"/>
+      <c r="AX111" s="18"/>
+      <c r="AY111" s="23"/>
+      <c r="AZ111" s="18"/>
+      <c r="BA111" s="23"/>
+      <c r="BB111" s="18"/>
+      <c r="BC111" s="23"/>
+      <c r="BD111" s="18"/>
+      <c r="BF111" s="18"/>
+    </row>
+    <row r="112" spans="22:72" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V112" s="6"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="13"/>
+      <c r="Y112" s="18"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="19"/>
+      <c r="AB112" s="25"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="18"/>
+      <c r="AE112" s="18"/>
+      <c r="AF112" s="18"/>
+      <c r="AG112" s="18"/>
+      <c r="AI112" s="18"/>
+      <c r="AJ112" s="18"/>
+      <c r="AK112" s="18"/>
+      <c r="AL112" s="18"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="18"/>
+      <c r="AO112" s="18"/>
+      <c r="AP112" s="18"/>
+      <c r="AQ112" s="18"/>
+      <c r="AR112" s="18"/>
+      <c r="AS112" s="18"/>
+      <c r="AT112" s="18"/>
+      <c r="AU112" s="18"/>
+      <c r="AV112" s="18"/>
+      <c r="AW112" s="23"/>
+      <c r="AX112" s="18"/>
+      <c r="AY112" s="23"/>
+      <c r="AZ112" s="18"/>
+      <c r="BA112" s="23"/>
+      <c r="BB112" s="18"/>
+      <c r="BC112" s="24"/>
+      <c r="BD112" s="18"/>
+      <c r="BF112" s="26"/>
+    </row>
+    <row r="113" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y113" s="18"/>
+      <c r="AB113" s="18"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="18"/>
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="18"/>
+      <c r="AI113" s="18"/>
+      <c r="AJ113" s="18"/>
+      <c r="AK113" s="18"/>
+      <c r="AL113" s="18"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+      <c r="AO113" s="18"/>
+      <c r="AP113" s="18"/>
+      <c r="AQ113" s="18"/>
+      <c r="AR113" s="18"/>
+      <c r="AS113" s="18"/>
+      <c r="AT113" s="18"/>
+      <c r="AU113" s="18"/>
+      <c r="AV113" s="18"/>
+      <c r="AW113" s="23"/>
+      <c r="AX113" s="18"/>
+      <c r="AY113" s="23"/>
+      <c r="AZ113" s="18"/>
+      <c r="BA113" s="23"/>
+      <c r="BB113" s="18"/>
+      <c r="BD113" s="18"/>
+    </row>
+    <row r="114" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T114" s="6"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="19"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="24"/>
+      <c r="AD114" s="19"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+      <c r="AG114" s="19"/>
+      <c r="AI114" s="18"/>
+      <c r="AJ114" s="18"/>
+      <c r="AK114" s="18"/>
+      <c r="AL114" s="18"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="18"/>
+      <c r="AO114" s="18"/>
+      <c r="AP114" s="18"/>
+      <c r="AQ114" s="18"/>
+      <c r="AR114" s="18"/>
+      <c r="AS114" s="18"/>
+      <c r="AT114" s="18"/>
+      <c r="AU114" s="18"/>
+      <c r="AV114" s="18"/>
+      <c r="AW114" s="23"/>
+      <c r="AX114" s="18"/>
+      <c r="AY114" s="23"/>
+      <c r="AZ114" s="18"/>
+      <c r="BA114" s="24"/>
+      <c r="BB114" s="18"/>
+      <c r="BD114" s="26"/>
+    </row>
+    <row r="115" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="18"/>
+      <c r="AB115" s="23"/>
+      <c r="AI115" s="18"/>
+      <c r="AJ115" s="18"/>
+      <c r="AK115" s="18"/>
+      <c r="AL115" s="18"/>
+      <c r="AM115" s="18"/>
+      <c r="AN115" s="18"/>
+      <c r="AO115" s="18"/>
+      <c r="AP115" s="18"/>
+      <c r="AQ115" s="18"/>
+      <c r="AR115" s="18"/>
+      <c r="AS115" s="18"/>
+      <c r="AT115" s="18"/>
+      <c r="AU115" s="18"/>
+      <c r="AV115" s="18"/>
+      <c r="AW115" s="23"/>
+      <c r="AX115" s="18"/>
+      <c r="AY115" s="23"/>
+      <c r="AZ115" s="18"/>
+      <c r="BB115" s="18"/>
+    </row>
+    <row r="116" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R116" s="6"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="13"/>
+      <c r="AA116" s="18"/>
+      <c r="AB116" s="24"/>
+      <c r="AC116" s="25"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="18"/>
+      <c r="AJ116" s="18"/>
+      <c r="AK116" s="18"/>
+      <c r="AL116" s="18"/>
+      <c r="AM116" s="18"/>
+      <c r="AN116" s="18"/>
+      <c r="AO116" s="18"/>
+      <c r="AP116" s="18"/>
+      <c r="AQ116" s="18"/>
+      <c r="AR116" s="18"/>
+      <c r="AS116" s="18"/>
+      <c r="AT116" s="18"/>
+      <c r="AU116" s="18"/>
+      <c r="AV116" s="18"/>
+      <c r="AW116" s="23"/>
+      <c r="AX116" s="18"/>
+      <c r="AY116" s="24"/>
+      <c r="AZ116" s="18"/>
+      <c r="BB116" s="26"/>
+    </row>
+    <row r="117" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA117" s="18"/>
+      <c r="AC117" s="18"/>
+      <c r="AD117" s="18"/>
+      <c r="AE117" s="18"/>
+      <c r="AF117" s="18"/>
+      <c r="AG117" s="18"/>
+      <c r="AH117" s="18"/>
+      <c r="AI117" s="18"/>
+      <c r="AJ117" s="18"/>
+      <c r="AK117" s="18"/>
+      <c r="AL117" s="18"/>
+      <c r="AM117" s="18"/>
+      <c r="AN117" s="18"/>
+      <c r="AO117" s="18"/>
+      <c r="AP117" s="18"/>
+      <c r="AQ117" s="18"/>
+      <c r="AR117" s="18"/>
+      <c r="AS117" s="18"/>
+      <c r="AT117" s="18"/>
+      <c r="AU117" s="18"/>
+      <c r="AV117" s="18"/>
+      <c r="AW117" s="23"/>
+      <c r="AX117" s="18"/>
+      <c r="AZ117" s="18"/>
+    </row>
+    <row r="118" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q118" s="5"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="31"/>
+      <c r="AB118" s="32"/>
+      <c r="AC118" s="18"/>
+      <c r="AD118" s="18"/>
+      <c r="AE118" s="18"/>
+      <c r="AF118" s="18"/>
+      <c r="AG118" s="18"/>
+      <c r="AH118" s="18"/>
+      <c r="AI118" s="18"/>
+      <c r="AJ118" s="18"/>
+      <c r="AK118" s="18"/>
+      <c r="AL118" s="18"/>
+      <c r="AM118" s="18"/>
+      <c r="AN118" s="18"/>
+      <c r="AO118" s="18"/>
+      <c r="AP118" s="18"/>
+      <c r="AQ118" s="18"/>
+      <c r="AR118" s="18"/>
+      <c r="AS118" s="18"/>
+      <c r="AT118" s="18"/>
+      <c r="AU118" s="18"/>
+      <c r="AV118" s="18"/>
+      <c r="AW118" s="24"/>
+      <c r="AX118" s="18"/>
+      <c r="AZ118" s="26"/>
+    </row>
+    <row r="119" spans="17:80" x14ac:dyDescent="0.3">
+      <c r="AB119" s="33"/>
+      <c r="AC119" s="18"/>
+      <c r="AD119" s="18"/>
+      <c r="AE119" s="18"/>
+      <c r="AF119" s="18"/>
+      <c r="AG119" s="18"/>
+      <c r="AH119" s="18"/>
+      <c r="AI119" s="18"/>
+      <c r="AJ119" s="18"/>
+      <c r="AK119" s="18"/>
+      <c r="AL119" s="18"/>
+      <c r="AM119" s="18"/>
+      <c r="AN119" s="18"/>
+      <c r="AO119" s="18"/>
+      <c r="AP119" s="18"/>
+      <c r="AQ119" s="18"/>
+      <c r="AR119" s="18"/>
+      <c r="AS119" s="18"/>
+      <c r="AT119" s="18"/>
+      <c r="AU119" s="18"/>
+      <c r="AV119" s="18"/>
+      <c r="AX119" s="18"/>
+    </row>
+    <row r="120" spans="17:80" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="34"/>
+      <c r="AC120" s="19"/>
+      <c r="AD120" s="19"/>
+      <c r="AE120" s="19"/>
+      <c r="AF120" s="19"/>
+      <c r="AG120" s="19"/>
+      <c r="AH120" s="19"/>
+      <c r="AI120" s="19"/>
+      <c r="AJ120" s="19"/>
+      <c r="AK120" s="19"/>
+      <c r="AL120" s="19"/>
+      <c r="AM120" s="19"/>
+      <c r="AN120" s="19"/>
+      <c r="AO120" s="19"/>
+      <c r="AP120" s="19"/>
+      <c r="AQ120" s="19"/>
+      <c r="AR120" s="19"/>
+      <c r="AS120" s="19"/>
+      <c r="AT120" s="19"/>
+      <c r="AU120" s="19"/>
+      <c r="AV120" s="19"/>
+      <c r="AX120" s="26"/>
+    </row>
+    <row r="123" spans="17:80" x14ac:dyDescent="0.3">
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="3"/>
+      <c r="AG123" s="3"/>
+      <c r="AH123" s="3"/>
+      <c r="AI123" s="3"/>
+      <c r="AJ123" s="3"/>
+      <c r="AK123" s="3"/>
+      <c r="AL123" s="3"/>
+      <c r="AM123" s="3"/>
+      <c r="AN123" s="3"/>
+      <c r="AO123" s="3"/>
+      <c r="AP123" s="3"/>
+      <c r="AQ123" s="3"/>
+      <c r="AR123" s="3"/>
+      <c r="AS123" s="3"/>
+      <c r="AT123" s="3"/>
+      <c r="AU123" s="3"/>
+      <c r="AV123" s="3"/>
+      <c r="AW123" s="3"/>
+      <c r="AX123" s="3"/>
+      <c r="AY123" s="3"/>
+      <c r="AZ123" s="3"/>
+      <c r="BA123" s="3"/>
+      <c r="BB123" s="3"/>
+      <c r="BC123" s="3"/>
+      <c r="BD123" s="3"/>
+      <c r="BE123" s="3"/>
+      <c r="BF123" s="3"/>
+      <c r="BG123" s="3"/>
+      <c r="BH123" s="3"/>
+      <c r="BI123" s="3"/>
+      <c r="BJ123" s="3"/>
+      <c r="BK123" s="3"/>
+      <c r="BL123" s="3"/>
+      <c r="BM123" s="3"/>
+      <c r="BN123" s="3"/>
+      <c r="BO123" s="3"/>
+      <c r="BP123" s="3"/>
+      <c r="BQ123" s="3"/>
+      <c r="BR123" s="3"/>
+      <c r="BS123" s="3"/>
+      <c r="BT123" s="3"/>
+      <c r="BU123" s="3"/>
+      <c r="BV123" s="3"/>
+      <c r="BW123" s="3"/>
+      <c r="BX123" s="3"/>
+      <c r="BY123" s="3"/>
+      <c r="BZ123" s="3"/>
+      <c r="CA123" s="3"/>
+      <c r="CB123" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
